--- a/PROYECTO CP/Roles_CP_CERTI.xlsx
+++ b/PROYECTO CP/Roles_CP_CERTI.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaupasDelgado\OneDrive\ÑaupasDelgado\PapaBeto\RepositorioJÑA\BetosWork\CP 2.0\E3 CP\Autenticacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95504404-8647-42F9-9753-8305538F871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3458EC7D-213B-4B1C-AF28-4BEA2D8809CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="14055" yWindow="4095" windowWidth="15090" windowHeight="9135" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t>Cuenta VUCE Id</t>
   </si>
@@ -205,13 +205,19 @@
   </si>
   <si>
     <t>cp-certi-13@gmail.com</t>
+  </si>
+  <si>
+    <t>2 opina</t>
+  </si>
+  <si>
+    <t>1 crea ficha 3 Anuncia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -236,6 +242,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -456,10 +470,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,8 +546,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -933,29 +950,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5546875" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -965,79 +983,83 @@
       <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>100</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>20100010136</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>101</v>
       </c>
@@ -1047,38 +1069,41 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2">
         <v>101</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>20100010136</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>102</v>
       </c>
@@ -1088,38 +1113,41 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2">
         <v>102</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="L4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>20101395031</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>103</v>
       </c>
@@ -1129,38 +1157,41 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2">
         <v>103</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>20101395031</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>104</v>
       </c>
@@ -1170,75 +1201,79 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4"/>
+      <c r="E6" s="2">
         <v>104</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>20509645150</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>105</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="6">
         <v>105</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>20153408191</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>106</v>
       </c>
@@ -1248,36 +1283,37 @@
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7"/>
+      <c r="E8" s="6">
         <v>106</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="8"/>
+      <c r="K8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>20551239692</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>107</v>
       </c>
@@ -1287,36 +1323,37 @@
       <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7"/>
+      <c r="E9" s="6">
         <v>107</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>20131312955</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="N9" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>108</v>
       </c>
@@ -1326,36 +1363,37 @@
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7"/>
+      <c r="E10" s="6">
         <v>108</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>20131373075</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="N10" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>109</v>
       </c>
@@ -1365,36 +1403,37 @@
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7"/>
+      <c r="E11" s="6">
         <v>109</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>20504794637</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="N11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>110</v>
       </c>
@@ -1404,36 +1443,37 @@
       <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7"/>
+      <c r="E12" s="6">
         <v>110</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>20509645150</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="N12" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>111</v>
       </c>
@@ -1443,36 +1483,37 @@
       <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7"/>
+      <c r="E13" s="6">
         <v>111</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>20147907487</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="N13" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>112</v>
       </c>
@@ -1482,38 +1523,41 @@
       <c r="C14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15"/>
+      <c r="E14" s="16">
         <v>112</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="H14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="I14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="17"/>
+      <c r="K14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="L14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="18">
+      <c r="M14" s="18">
         <v>20147907487</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="N14" s="21" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{5EC57652-FA9C-4633-AE74-5F5385ADB1B4}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E1D42EA0-BE35-458D-867E-06B0135E114D}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{D0023AB4-EFD7-479B-A28F-F6BF95884E70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/PROYECTO CP/Roles_CP_CERTI.xlsx
+++ b/PROYECTO CP/Roles_CP_CERTI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3458EC7D-213B-4B1C-AF28-4BEA2D8809CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C9251-DD5D-441B-B81D-73BABD005066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14055" yWindow="4095" windowWidth="15090" windowHeight="9135" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PROYECTO CP/Roles_CP_CERTI.xlsx
+++ b/PROYECTO CP/Roles_CP_CERTI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C9251-DD5D-441B-B81D-73BABD005066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC06A948-5ED6-42E4-A633-C067275170D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,7 +953,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1063,7 @@
       <c r="A3" s="29">
         <v>101</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="4" t="s">

--- a/PROYECTO CP/Roles_CP_CERTI.xlsx
+++ b/PROYECTO CP/Roles_CP_CERTI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC06A948-5ED6-42E4-A633-C067275170D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68360D59-93AA-4171-A555-6460E3600E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PROYECTO CP/Roles_CP_CERTI.xlsx
+++ b/PROYECTO CP/Roles_CP_CERTI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68360D59-93AA-4171-A555-6460E3600E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49A6FE-E321-47C2-B232-78B5CAAF6D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -631,6 +631,229 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>627672</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5A74D2-F575-4D81-9A61-0331F9EE57A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="5238" t="18073" b="26498"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16068675" y="4457700"/>
+          <a:ext cx="7409472" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>589432</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>476190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBAD839-3E24-4BBA-A6B5-03502131CCCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16021050" y="4924425"/>
+          <a:ext cx="8942857" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>388571</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>504762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D90637-B9DB-4B05-BE81-E1C8E5135C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15992475" y="5429250"/>
+          <a:ext cx="15628571" cy="504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>342258</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>495254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E7DD3B-5802-452A-95AB-80FA6B5152B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30251400" y="5553075"/>
+          <a:ext cx="5133333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>499567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEA2AB5-8A27-4603-86F4-769BA25724C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="1699" t="57978" r="979" b="4819"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16040101" y="5895975"/>
+          <a:ext cx="9601200" cy="537667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -952,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>100</v>
       </c>
@@ -1059,7 +1282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>101</v>
       </c>
@@ -1103,7 +1326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>102</v>
       </c>
@@ -1147,7 +1370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>103</v>
       </c>
@@ -1191,7 +1414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>104</v>
       </c>
@@ -1231,7 +1454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>105</v>
       </c>
@@ -1273,7 +1496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>106</v>
       </c>
@@ -1313,7 +1536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>107</v>
       </c>
@@ -1353,7 +1576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>108</v>
       </c>
@@ -1393,7 +1616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>109</v>
       </c>
@@ -1433,7 +1656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>110</v>
       </c>
@@ -1473,7 +1696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>111</v>
       </c>
@@ -1513,7 +1736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>112</v>
       </c>
@@ -1561,5 +1784,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/PROYECTO CP/Roles_CP_CERTI.xlsx
+++ b/PROYECTO CP/Roles_CP_CERTI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49A6FE-E321-47C2-B232-78B5CAAF6D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FD957E-9CE3-4558-85BB-D2C91A928B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
